--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\Audio 4 Games\GameJam\BringTheBandBack\Fmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7933AC2-87FF-463A-9237-B2BD9257D7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D383A7F-D6DA-4747-8487-3A11284B37F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="795" windowWidth="23970" windowHeight="12720" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15300" windowHeight="7875" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,12 +32,65 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+  <si>
+    <t>Event Path</t>
+  </si>
+  <si>
+    <t>Timeline</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Para. Type</t>
+  </si>
+  <si>
+    <t>Para. Range</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>:/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -51,7 +104,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -59,12 +112,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,12 +466,134 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="6" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D383A7F-D6DA-4747-8487-3A11284B37F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB37C2-E2AC-4903-B400-DE0DA36D8416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15300" windowHeight="7875" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
   <si>
     <t>Event Path</t>
   </si>
@@ -59,7 +59,46 @@
     <t>N</t>
   </si>
   <si>
-    <t>:/</t>
+    <t>:/DoubleBass/Attack</t>
+  </si>
+  <si>
+    <t>:/Drums/Cymbal</t>
+  </si>
+  <si>
+    <t>:/Drums/Sticks</t>
+  </si>
+  <si>
+    <t>:/Guitar/Hit</t>
+  </si>
+  <si>
+    <t>:/Player/Damage</t>
+  </si>
+  <si>
+    <t>:/Player/Footsteps</t>
+  </si>
+  <si>
+    <t>:/Player/Jump</t>
+  </si>
+  <si>
+    <t>:/Sax/Attack</t>
+  </si>
+  <si>
+    <t>:/Vocals/Scream</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>BassContact</t>
+  </si>
+  <si>
+    <t>Discrete</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>:/Piano/Rolling</t>
   </si>
 </sst>
 </file>
@@ -466,15 +505,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -505,59 +545,93 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
@@ -568,9 +642,11 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
@@ -581,9 +657,11 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
@@ -591,6 +669,57 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\Audio 4 Games\GameJam\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB37C2-E2AC-4903-B400-DE0DA36D8416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6726D72F-E944-4DA6-B346-3CF423EFA441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="2160" yWindow="795" windowWidth="23970" windowHeight="12720" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="24">
   <si>
     <t>Event Path</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>:/Piano/Rolling</t>
+  </si>
+  <si>
+    <t>jumpstate</t>
+  </si>
+  <si>
+    <t>0 landing 1 jumping</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,10 +686,18 @@
       <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="3"/>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18BB37C2-E2AC-4903-B400-DE0DA36D8416}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7066-D638-4068-A765-A47048EB5E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="12060" yWindow="2025" windowWidth="7950" windowHeight="7875" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
   <si>
     <t>Event Path</t>
   </si>
@@ -99,6 +99,15 @@
   </si>
   <si>
     <t>:/Piano/Rolling</t>
+  </si>
+  <si>
+    <t>:/Enemy/Eat</t>
+  </si>
+  <si>
+    <t>:/Enemy/Footsteps</t>
+  </si>
+  <si>
+    <t>:/Player/Land</t>
   </si>
 </sst>
 </file>
@@ -143,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -179,11 +188,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -191,6 +211,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -505,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,39 +708,90 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="3"/>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7F7066-D638-4068-A765-A47048EB5E6E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E4309-2E12-4A59-893A-62F6E2C87270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="2025" windowWidth="7950" windowHeight="7875" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
   <si>
     <t>Event Path</t>
   </si>
@@ -108,6 +108,21 @@
   </si>
   <si>
     <t>:/Player/Land</t>
+  </si>
+  <si>
+    <t>SaxContact</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>GuitarContact</t>
+  </si>
+  <si>
+    <t>SticksContact</t>
+  </si>
+  <si>
+    <t>CymbalContact</t>
   </si>
 </sst>
 </file>
@@ -528,14 +543,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="6" width="12.5703125" customWidth="1"/>
     <col min="7" max="7" width="44.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -594,7 +611,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>19</v>
@@ -615,7 +632,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -636,7 +653,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
@@ -732,7 +749,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>19</v>
@@ -768,7 +785,7 @@
         <v>7</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>19</v>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\Audio 4 Games\GameJam\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E4309-2E12-4A59-893A-62F6E2C87270}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098C880-6590-47DF-8707-AE4AFD3E353F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="-24795" yWindow="1800" windowWidth="23970" windowHeight="12720" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -544,7 +544,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\Audio 4 Games\GameJam\BringTheBandBack\Fmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098C880-6590-47DF-8707-AE4AFD3E353F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE36DB7-8704-4EE2-B7B3-30AAB7989D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24795" yWindow="1800" windowWidth="23970" windowHeight="12720" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
   <si>
     <t>Event Path</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>CymbalContact</t>
+  </si>
+  <si>
+    <t>:/Atmos/Haunting</t>
+  </si>
+  <si>
+    <t>:/Drums/StickCollison</t>
+  </si>
+  <si>
+    <t>StickCollision</t>
   </si>
 </sst>
 </file>
@@ -541,10 +550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +632,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
@@ -632,7 +641,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>19</v>
@@ -643,44 +652,50 @@
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>27</v>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>17</v>
@@ -695,7 +710,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>17</v>
@@ -710,7 +725,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
@@ -725,7 +740,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>17</v>
@@ -740,75 +755,105 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="3"/>
+      <c r="C15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE36DB7-8704-4EE2-B7B3-30AAB7989D44}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9872C14-63CB-431B-988A-85EE5659DF8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,20 +214,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -235,7 +239,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +563,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +791,7 @@
       <c r="D12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -790,70 +800,70 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="3"/>
+      <c r="C13" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="B14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="3"/>
+      <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
+      <c r="C15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="3"/>
+      <c r="C16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9872C14-63CB-431B-988A-85EE5659DF8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3E102-F8D9-49C5-86D3-85408D46E8B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Event Path</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>StickCollision</t>
+  </si>
+  <si>
+    <t>SpawnPiano</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,9 +716,15 @@
       <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA3E102-F8D9-49C5-86D3-85408D46E8B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124034ED-705A-4011-B8B4-18791A6CEF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
   <si>
     <t>Event Path</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>SpawnPiano</t>
+  </si>
+  <si>
+    <t>AtmosOff</t>
   </si>
 </sst>
 </file>
@@ -565,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,9 +872,15 @@
       <c r="C16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="G16" s="7"/>
     </row>
   </sheetData>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124034ED-705A-4011-B8B4-18791A6CEF75}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44704BBF-3802-4B15-8013-9FB76506D6B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12060" yWindow="225" windowWidth="7950" windowHeight="9675" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="37">
   <si>
     <t>Event Path</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>AtmosOff</t>
+  </si>
+  <si>
+    <t>:/UI/Play</t>
+  </si>
+  <si>
+    <t>:/UI/Quit</t>
   </si>
 </sst>
 </file>
@@ -566,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FDC269-D59F-4971-B506-002CE6DCBEA9}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,6 +889,36 @@
       </c>
       <c r="G16" s="7"/>
     </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Fmod/audio managment sheet.xlsx
+++ b/Fmod/audio managment sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\joshd\Documents\BringTheBandBack\Fmod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jon\Documents\Audio 4 Games\GameJam\BringTheBandBack\Fmod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44704BBF-3802-4B15-8013-9FB76506D6B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B29E6D70-B075-4136-B48A-EA687AE19E49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
+    <workbookView xWindow="2616" yWindow="2628" windowWidth="17280" windowHeight="9024" xr2:uid="{9A0D5F0E-D7D4-4C8C-99E5-94DD75E2F993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -575,19 +575,20 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="3" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="7" max="7" width="44.42578125" customWidth="1"/>
+    <col min="5" max="6" width="12.5546875" customWidth="1"/>
+    <col min="7" max="7" width="44.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -610,7 +611,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -631,7 +632,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -652,7 +653,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
@@ -673,7 +674,7 @@
       </c>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -694,7 +695,7 @@
       </c>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -715,7 +716,7 @@
       </c>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -736,7 +737,7 @@
       </c>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -751,7 +752,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -766,7 +767,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -781,7 +782,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -796,7 +797,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>15</v>
       </c>
@@ -817,7 +818,7 @@
       </c>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>16</v>
       </c>
@@ -832,7 +833,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
@@ -853,7 +854,7 @@
       </c>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>23</v>
       </c>
@@ -868,7 +869,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
@@ -889,7 +890,7 @@
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>35</v>
       </c>
@@ -904,7 +905,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>36</v>
       </c>
